--- a/console/Networking/iaas网络与容器中文提取/dockerExcel/components/dockerDetail.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/dockerExcel/components/dockerDetail.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -1229,30 +1224,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Edit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Modify Name</t>
     </r>
   </si>
@@ -1361,90 +1332,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Running Parameter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Running Command</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Image Name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Verification Information</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Machine Name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Creation Time</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expiration Time</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Will expire in'</t>
     </r>
   </si>
@@ -1457,30 +1344,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'X day(s)'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release time</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Configuration Information</t>
     </r>
   </si>
@@ -1565,42 +1428,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Starting Option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'tty Enabled'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'tty Disabled'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Network Information</t>
     </r>
   </si>
@@ -1698,18 +1525,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Domain and IP Mapping</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Domain</t>
     </r>
   </si>
   <si>
@@ -1766,6 +1581,84 @@
   </si>
   <si>
     <t>Resource Expired'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X day(s)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Machine Name</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expiration Time</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1773,7 +1666,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1783,6 +1676,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1809,12 +1717,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2156,15 +2070,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="45" style="1"/>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="45" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2186,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2208,7 +2126,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2219,7 +2137,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2230,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2241,7 +2159,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2252,7 +2170,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2263,7 +2181,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2274,7 +2192,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2285,7 +2203,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2296,7 +2214,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2307,7 +2225,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2318,7 +2236,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2329,7 +2247,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2340,7 +2258,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2351,7 +2269,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2362,7 +2280,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2373,7 +2291,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2384,7 +2302,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2395,7 +2313,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2406,7 +2324,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2416,8 +2334,8 @@
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>119</v>
+      <c r="C23" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2428,7 +2346,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2439,7 +2357,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2450,7 +2368,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2461,7 +2379,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2472,7 +2390,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2483,7 +2401,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2494,7 +2412,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2505,7 +2423,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2516,10 +2434,10 @@
         <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2527,10 +2445,11 @@
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -2538,10 +2457,11 @@
         <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -2549,10 +2469,11 @@
         <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2560,10 +2481,10 @@
         <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -2571,10 +2492,10 @@
         <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -2582,10 +2503,10 @@
         <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -2593,10 +2514,10 @@
         <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -2604,10 +2525,10 @@
         <v>79</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -2615,10 +2536,10 @@
         <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -2626,10 +2547,10 @@
         <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -2637,10 +2558,10 @@
         <v>85</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -2648,10 +2569,10 @@
         <v>87</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -2659,10 +2580,10 @@
         <v>89</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -2670,10 +2591,10 @@
         <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -2681,10 +2602,10 @@
         <v>93</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -2692,7 +2613,7 @@
         <v>95</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -2703,12 +2624,13 @@
         <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B49" numberStoredAsText="1"/>
   </ignoredErrors>
